--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-19.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-19.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PM_16_03_2019\Progress Monitoring Kishoregonj\Kishoreganj\Kishoreganj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\PM_29_12_2020\Progress Monitoring Kishoregonj\Kishoreganj\Kishoreganj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="River" sheetId="15" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">River!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">River!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">River!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -90,7 +91,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,6 +126,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="ArialRegular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,6 +306,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,27 +624,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="130" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScale="130" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="16" customWidth="1"/>
     <col min="7" max="7" width="14" style="16" customWidth="1"/>
     <col min="8" max="8" width="14" style="17" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="22.88671875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
@@ -644,7 +656,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5">
+    <row r="2" spans="1:9" ht="31.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -668,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1">
+    <row r="3" spans="1:9" s="6" customFormat="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -688,7 +700,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="31.5">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="31.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -706,7 +718,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="31.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -724,7 +736,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="31.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -742,7 +754,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="31.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -760,7 +772,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="31.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -778,7 +790,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="31.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -796,7 +808,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -820,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -844,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -868,7 +880,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="31.5">
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="31.2">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -888,8 +900,12 @@
       <c r="H13" s="29">
         <v>255623.014</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="39">
+        <f>SUM(G13:H13)</f>
+        <v>577753.68400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
@@ -904,7 +920,7 @@
         <v>37496375.491014004</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
@@ -917,6 +933,46 @@
       <c r="H15" s="36">
         <f>H14/100000</f>
         <v>374.96375491014004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="G16" s="16">
+        <f>G15/15.82</f>
+        <v>29.896474678046776</v>
+      </c>
+      <c r="H16" s="17">
+        <f>H15/7.119</f>
+        <v>52.670846314108729</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="16">
+        <v>80044.94</v>
+      </c>
+      <c r="H17" s="38">
+        <v>100040.21</v>
+      </c>
+      <c r="I17" s="39">
+        <f>SUM(G17:H17)</f>
+        <v>180085.15000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="16">
+        <f>G17/G13</f>
+        <v>0.24848593274275935</v>
+      </c>
+      <c r="H18" s="16">
+        <f>H17/H13</f>
+        <v>0.39135838528216405</v>
+      </c>
+      <c r="I18" s="10">
+        <f>I17/I13</f>
+        <v>0.31169883461963355</v>
+      </c>
+      <c r="J18" s="5">
+        <f>I18*968.51</f>
+        <v>301.8834383174613</v>
       </c>
     </row>
   </sheetData>
@@ -933,15 +989,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
